--- a/DDAf_2020_Groupements_de_pays.xlsx
+++ b/DDAf_2020_Groupements_de_pays.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4865" uniqueCount="472">
   <si>
     <t>Liste des pays et groupes de pays utilisés pour agréger les indicateurs</t>
   </si>
@@ -1426,6 +1426,93 @@
   </si>
   <si>
     <t>10. Huit communautés économiques régionales de nations africaines reconnues par l'Union africaine. L'ASEAN, un groupe de pays asiatiques, le Mercosur, un groupe de communautés latino-américaines et les pays de l'Union européenne sont ajoutés à titre de comparaison.</t>
+  </si>
+  <si>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1436,7 +1523,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,6 +1576,33 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1543,11 +1657,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1626,9 +1741,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1907,7 +2025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y207"/>
+  <dimension ref="A1:Y214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17086,8 +17204,34 @@
       <c r="U207" s="1"/>
       <c r="V207" s="1"/>
     </row>
+    <row r="210" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B210" s="28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B212" s="29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B213" s="29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B214" s="29" t="s">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B210" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020."/>
+    <hyperlink ref="B212" r:id="rId2"/>
+    <hyperlink ref="B214" r:id="rId3"/>
+    <hyperlink ref="B213" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>